--- a/zj_codes.xlsx
+++ b/zj_codes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -28,52 +28,169 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">100020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">持有</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260101</t>
+  </si>
+  <si>
     <t xml:space="preserve">570008</t>
   </si>
   <si>
-    <t xml:space="preserve">持有</t>
+    <t xml:space="preserve">090018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001716</t>
   </si>
   <si>
     <t xml:space="preserve">570001</t>
   </si>
   <si>
+    <t xml:space="preserve">004997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519068</t>
+  </si>
+  <si>
     <t xml:space="preserve">519736</t>
   </si>
   <si>
-    <t xml:space="preserve">519068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470058</t>
+    <t xml:space="preserve">003095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005827</t>
   </si>
   <si>
     <t xml:space="preserve">260108</t>
   </si>
   <si>
-    <t xml:space="preserve">260101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004997</t>
+    <t xml:space="preserve">163406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">675113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">501009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">006733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">006102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161005</t>
   </si>
 </sst>
 </file>
@@ -84,7 +201,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -115,6 +232,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="AR PL SungtiL GB"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -124,7 +247,6 @@
       <sz val="10"/>
       <name val="AR PL SungtiL GB"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,7 +291,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,11 +300,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,24 +333,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -228,7 +361,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -236,7 +369,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -244,7 +377,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -252,7 +385,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -260,7 +393,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -268,7 +401,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -276,7 +409,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -284,7 +417,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -292,76 +425,356 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
+      <c r="A16" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
+      <c r="A17" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>6</v>
+      <c r="A18" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/zj_codes.xlsx
+++ b/zj_codes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="104">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -191,6 +191,147 @@
   </si>
   <si>
     <t xml:space="preserve">161005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">持有１</t>
+  </si>
+  <si>
+    <t xml:space="preserve">377240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">009548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">持有２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">005911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">690007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163402</t>
   </si>
 </sst>
 </file>
@@ -201,7 +342,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -242,11 +383,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="AR PL SungtiL GB"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -291,7 +427,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -312,10 +448,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -333,16 +465,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -556,7 +685,7 @@
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -564,7 +693,7 @@
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -572,7 +701,7 @@
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -580,7 +709,7 @@
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -588,7 +717,7 @@
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -596,7 +725,7 @@
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -604,7 +733,7 @@
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -612,7 +741,7 @@
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -620,7 +749,7 @@
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -628,7 +757,7 @@
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -636,7 +765,7 @@
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -644,7 +773,7 @@
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -652,7 +781,7 @@
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -660,7 +789,7 @@
       <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -668,7 +797,7 @@
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -676,7 +805,7 @@
       <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -684,7 +813,7 @@
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -692,7 +821,7 @@
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -700,7 +829,7 @@
       <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -708,7 +837,7 @@
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -716,7 +845,7 @@
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -724,7 +853,7 @@
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -732,7 +861,7 @@
       <c r="A49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -740,7 +869,7 @@
       <c r="A50" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -748,7 +877,7 @@
       <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -756,7 +885,7 @@
       <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -764,7 +893,7 @@
       <c r="A53" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -772,8 +901,416 @@
       <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>29</v>
+      <c r="B54" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/zj_codes.xlsx
+++ b/zj_codes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -191,147 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">161005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">持有１</t>
-  </si>
-  <si>
-    <t xml:space="preserve">377240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">008888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">009098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">008714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">009548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">008903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">519066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">002379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">持有２</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">519772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">007412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">002259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">002851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">690007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">519732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163402</t>
   </si>
 </sst>
 </file>
@@ -465,13 +324,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A121" activeCellId="0" sqref="55:121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -903,414 +765,6 @@
       </c>
       <c r="B54" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
